--- a/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A15_02_従業員の個人番号連携_OIC統合.xlsx
+++ b/20_営業/10_マスタ/TE030/T_TE030_CMM_002_A15_02_従業員の個人番号連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scsk_yoshioka-shinta\Desktop\wk3\テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11400" windowWidth="23040" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="23040" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="14" r:id="rId11"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="15" r:id="rId12"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="16" r:id="rId13"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId14"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId15"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="17" r:id="rId14"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId15"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -39,11 +40,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="215">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -684,10 +686,6 @@
       <t>シンタ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Issue1.0</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SCSK 吉岡伸太</t>
@@ -934,10 +932,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>T_TE020_CMM_002_A15_02</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>● アドオンの部分について、機能設計書(</t>
     </r>
@@ -1216,6 +1210,196 @@
     <t>左記の通りであることを確認</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ9</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ9</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・今回処理実行日時取得</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・前回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>XXCMM002A15_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_02(従業員の個人番号連携)</t>
+    <rPh sb="15" eb="18">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_02から個人番号ID情報テーブル更新が実行され、正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCMM002A15_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCMM002A15_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CMM_002_A15_02_従業員の個人番号連携_OIC統合_エビデンス(シナリオ9).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 2321138
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個人番号ID情報テーブル更新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
+  <si>
+    <t>T_TE020_CMM_002_A15_02</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1226,7 +1410,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,6 +1598,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1464,7 +1663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2091,6 +2290,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2104,7 +2314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2330,9 +2540,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2469,6 +2676,27 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2502,9 +2730,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2516,6 +2741,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -2871,6 +3097,731 @@
             <a:latin typeface="ＭＳ Ｐゴシック"/>
             <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30419040"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33120330"/>
+          <a:ext cx="6939915" cy="2806065"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29599890"/>
+          <a:ext cx="3303270" cy="459105"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8945,9 +9896,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -8984,15 +9937,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1">
       <c r="B7" s="5"/>
@@ -9001,41 +9954,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
+      <c r="B13" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="6"/>
@@ -9072,7 +10025,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45078</v>
+        <v>45575</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1">
@@ -9084,7 +10037,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="6" customHeight="1">
@@ -9096,7 +10049,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9155,7 +10108,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -9208,28 +10161,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9239,18 +10192,18 @@
         <v>122</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
+      <c r="F11" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -9260,23 +10213,23 @@
       <c r="B12" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>176</v>
+      <c r="C12" s="116" t="s">
+        <v>174</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
@@ -9287,16 +10240,16 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
@@ -9307,16 +10260,16 @@
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
@@ -9327,16 +10280,16 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -9347,17 +10300,17 @@
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>152</v>
+      <c r="E16" s="118" t="s">
+        <v>151</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -9369,16 +10322,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
@@ -9388,23 +10341,23 @@
       <c r="B18" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="117" t="s">
-        <v>166</v>
+      <c r="C18" s="116" t="s">
+        <v>164</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I18" s="77">
         <v>45082</v>
@@ -9415,16 +10368,16 @@
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I19" s="77">
         <v>45082</v>
@@ -9435,16 +10388,16 @@
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I20" s="77">
         <v>45082</v>
@@ -9455,16 +10408,16 @@
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I21" s="77">
         <v>45082</v>
@@ -9474,17 +10427,17 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119" t="s">
-        <v>150</v>
+      <c r="E22" s="118" t="s">
+        <v>149</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I22" s="77">
         <v>45082</v>
@@ -9495,16 +10448,16 @@
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G23" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I23" s="77">
         <v>45082</v>
@@ -9646,7 +10599,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -9699,28 +10652,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9730,18 +10683,18 @@
         <v>125</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
         <v>182</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -9751,83 +10704,83 @@
       <c r="B12" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>166</v>
+      <c r="C12" s="116" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.5">
-      <c r="B13" s="122"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="42">
-      <c r="B14" s="122"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.5">
-      <c r="B15" s="122"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -9835,20 +10788,20 @@
     </row>
     <row r="16" spans="1:9" ht="31.5">
       <c r="A16" s="37"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>152</v>
+      <c r="E16" s="118" t="s">
+        <v>151</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -9856,30 +10809,30 @@
     </row>
     <row r="17" spans="1:9" ht="73.5">
       <c r="A17" s="37"/>
-      <c r="B17" s="122"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="122"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
@@ -9889,7 +10842,7 @@
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -9899,7 +10852,7 @@
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -9909,7 +10862,7 @@
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -9919,7 +10872,7 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -9927,7 +10880,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="63"/>
-      <c r="C23" s="117"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="45"/>
       <c r="E23" s="50"/>
       <c r="F23" s="45"/>
@@ -10111,7 +11064,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -10164,28 +11117,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10195,18 +11148,18 @@
         <v>127</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
+      <c r="F11" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -10216,83 +11169,83 @@
       <c r="B12" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>166</v>
+      <c r="C12" s="116" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.5">
-      <c r="B13" s="122"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="42">
-      <c r="B14" s="122"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.5">
-      <c r="B15" s="122"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -10300,10 +11253,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="37"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
@@ -10311,7 +11264,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="37"/>
-      <c r="B17" s="122"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -10321,20 +11274,20 @@
       <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="122"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="B19" s="122"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -10344,7 +11297,7 @@
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -10354,7 +11307,7 @@
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -10364,7 +11317,7 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -10374,7 +11327,7 @@
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -10382,7 +11335,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="B24" s="63"/>
-      <c r="C24" s="117"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="45"/>
       <c r="E24" s="50"/>
       <c r="F24" s="45"/>
@@ -10566,7 +11519,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -10619,28 +11572,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10650,18 +11603,18 @@
         <v>129</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
+      <c r="F11" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -10671,83 +11624,83 @@
       <c r="B12" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>166</v>
+      <c r="C12" s="116" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.5">
-      <c r="B13" s="122"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="42">
-      <c r="B14" s="122"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52.5">
-      <c r="B15" s="122"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -10755,20 +11708,20 @@
     </row>
     <row r="16" spans="1:9" ht="73.5">
       <c r="A16" s="37"/>
-      <c r="B16" s="122"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -10776,7 +11729,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="37"/>
-      <c r="B17" s="122"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -10786,10 +11739,10 @@
       <c r="I17" s="75"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="122"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
@@ -10799,7 +11752,7 @@
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -10809,7 +11762,7 @@
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -10819,7 +11772,7 @@
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -10829,7 +11782,7 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -10837,7 +11790,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="B23" s="63"/>
-      <c r="C23" s="117"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="45"/>
       <c r="E23" s="50"/>
       <c r="F23" s="45"/>
@@ -11011,12 +11964,332 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B10" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42">
+      <c r="A11" s="37"/>
+      <c r="B11" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="77">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5">
+      <c r="A12" s="37"/>
+      <c r="B12" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="77">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42">
+      <c r="A13" s="37"/>
+      <c r="B13" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="75">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5">
+      <c r="B14" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="75">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B15" s="71"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
+      <c r="A19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="26" customWidth="1"/>
@@ -11047,38 +12320,38 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="141" t="s">
+      <c r="G5" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="141" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="138"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="144"/>
+      <c r="C6" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="136"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="142"/>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="65"/>
@@ -11263,14 +12536,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="26" customWidth="1"/>
@@ -11310,22 +12583,22 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" thickBot="1">
       <c r="A7" s="58"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="110" t="s">
         <v>64</v>
       </c>
     </row>
@@ -11365,22 +12638,22 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="112" t="s">
+      <c r="E14" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="112" t="s">
+      <c r="F14" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="111" t="s">
+      <c r="G14" s="110" t="s">
         <v>64</v>
       </c>
     </row>
@@ -11437,12 +12710,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
@@ -11482,32 +12757,32 @@
       <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="90">
+      <c r="B8" s="89">
         <v>45078</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>134</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>13</v>
@@ -11515,27 +12790,35 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="91"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="90"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="132">
+        <v>45575</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="135" t="s">
+        <v>213</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="91"/>
+      <c r="I9" s="90"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="17"/>
@@ -11568,7 +12851,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="13" width="6.625" style="26" customWidth="1"/>
     <col min="14" max="16384" width="9" style="26"/>
@@ -11615,7 +12898,7 @@
     <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
     <row r="9" spans="1:13" ht="14.45" customHeight="1">
       <c r="B9" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.45" customHeight="1">
@@ -11756,6 +13039,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
@@ -11819,10 +13103,10 @@
       <c r="A6" s="83"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="102" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="83"/>
@@ -11831,11 +13115,11 @@
       <c r="A7" s="83"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>135</v>
+      <c r="E7" s="85" t="s">
+        <v>134</v>
       </c>
       <c r="F7" s="83"/>
     </row>
@@ -11843,10 +13127,10 @@
       <c r="A8" s="83"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="83"/>
@@ -11855,10 +13139,10 @@
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="85" t="s">
         <v>92</v>
       </c>
       <c r="F9" s="83"/>
@@ -11867,11 +13151,11 @@
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="86" t="s">
-        <v>141</v>
+      <c r="E10" s="85" t="s">
+        <v>140</v>
       </c>
       <c r="F10" s="83"/>
     </row>
@@ -11879,10 +13163,10 @@
       <c r="A11" s="83"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="85" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="83"/>
@@ -11891,10 +13175,10 @@
       <c r="A12" s="83"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="85" t="s">
         <v>94</v>
       </c>
       <c r="F12" s="83"/>
@@ -11903,10 +13187,10 @@
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="85" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="83"/>
@@ -11915,53 +13199,57 @@
       <c r="A14" s="83"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="85" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="84" customFormat="1">
       <c r="A15" s="83"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="D15" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>193</v>
+      </c>
       <c r="F15" s="83"/>
     </row>
-    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="84" customFormat="1">
       <c r="A16" s="83"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1">
-      <c r="A17" s="87"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25">
       <c r="A18" s="83"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
     </row>
     <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -11974,12 +13262,11 @@
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
     <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
+    <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
-&lt;YYYY/MM/DD&gt;</oddHeader>
     <oddFooter>&amp;C&amp;8Confidential XXX株式会社、日本オラクル株式会社
 Copyright © 2016, XXX / Oracle Corporation Japan. All rights reserved.&amp;R&amp;8&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -11993,7 +13280,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="26" customWidth="1"/>
@@ -12021,19 +13308,19 @@
       <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="123" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" customHeight="1">
-      <c r="B7" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="134"/>
+      <c r="B7" s="140" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="140"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="33" t="s">
@@ -12046,47 +13333,47 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="127">
         <v>1563587</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="115" customFormat="1" ht="21">
-      <c r="B14" s="131" t="s">
+    <row r="14" spans="1:4" s="114" customFormat="1" ht="21">
+      <c r="B14" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="114" customFormat="1" ht="21">
+      <c r="B15" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="114" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B16" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="131" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="115" customFormat="1" ht="21">
-      <c r="B15" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="115" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B16" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>146</v>
+      <c r="C16" s="119" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -12101,50 +13388,50 @@
       <c r="B19" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="126"/>
+      <c r="C19" s="125"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="32"/>
-      <c r="C20" s="126"/>
+      <c r="C20" s="125"/>
     </row>
     <row r="21" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="128">
+      <c r="C21" s="127">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="129" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B23" s="131" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="131" t="s">
+    <row r="23" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B23" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B24" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B24" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="116" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="25" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B25" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="120" t="s">
-        <v>155</v>
+      <c r="B25" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -12159,50 +13446,50 @@
       <c r="B28" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="126"/>
+      <c r="C28" s="125"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="125"/>
-      <c r="C29" s="127"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="126"/>
     </row>
     <row r="30" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="128">
+      <c r="C30" s="127">
         <v>1566045</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="113" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B32" s="131" t="s">
+    <row r="32" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B32" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B33" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B34" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="131" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B33" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="116" t="s">
+      <c r="C34" s="119" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B34" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="120" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -12217,57 +13504,57 @@
       <c r="B37" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="126"/>
+      <c r="C37" s="125"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="125"/>
-      <c r="C38" s="127"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="126"/>
     </row>
     <row r="39" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B39" s="125" t="s">
+      <c r="B39" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="128">
+      <c r="C39" s="127">
         <v>1566142</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="113" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B41" s="131" t="s">
+    <row r="41" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B41" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="114" customFormat="1" ht="21">
+      <c r="B42" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B43" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="115" customFormat="1" ht="21">
-      <c r="B42" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B43" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="120" t="s">
-        <v>142</v>
+      <c r="C43" s="119" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="32"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="131" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12275,67 +13562,67 @@
       <c r="B46" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="126"/>
+      <c r="C46" s="125"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="32"/>
-      <c r="C47" s="126"/>
+      <c r="C47" s="125"/>
     </row>
     <row r="48" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B48" s="125" t="s">
+      <c r="B48" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="128">
+      <c r="C48" s="127">
         <v>9999</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="113" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="21">
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="21">
+      <c r="B51" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B52" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="21">
-      <c r="B51" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B52" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="120" t="s">
-        <v>179</v>
+      <c r="C52" s="119" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="125"/>
-      <c r="C53" s="128"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="127"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="125" t="s">
+      <c r="B54" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="128">
+      <c r="C54" s="127">
         <v>1563587</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -12352,16 +13639,16 @@
       <c r="B59" s="32"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="125" t="s">
+      <c r="B60" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="128">
+      <c r="C60" s="127">
         <v>1563587</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -12374,25 +13661,25 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="32"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="128">
+      <c r="C66" s="127">
         <v>1563587</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="127"/>
+        <v>143</v>
+      </c>
+      <c r="C67" s="126"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="32"/>
@@ -12408,47 +13695,47 @@
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="125"/>
-      <c r="C71" s="128"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="127"/>
     </row>
     <row r="72" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B72" s="125" t="s">
+      <c r="B72" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="128">
+      <c r="C72" s="127">
         <v>1563587</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B73" s="113" t="s">
+      <c r="B73" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="113" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="21">
-      <c r="B74" s="131" t="s">
+      <c r="B74" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="21">
+      <c r="B75" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="14.25" thickBot="1">
+      <c r="B76" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="131" t="s">
+      <c r="C76" s="119" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="21">
-      <c r="B75" s="116" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="14.25" thickBot="1">
-      <c r="B76" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="120" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -12486,7 +13773,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -12539,28 +13826,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12570,18 +13857,18 @@
         <v>112</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
         <v>182</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -12592,23 +13879,23 @@
       <c r="B12" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>166</v>
+      <c r="C12" s="116" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
@@ -12620,16 +13907,16 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
@@ -12641,16 +13928,16 @@
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
@@ -12661,16 +13948,16 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -12680,17 +13967,17 @@
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>150</v>
+      <c r="E16" s="118" t="s">
+        <v>149</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -12701,16 +13988,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
@@ -12721,7 +14008,7 @@
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -12731,7 +14018,7 @@
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -12752,7 +14039,7 @@
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -12762,7 +14049,7 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -12772,7 +14059,7 @@
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -12782,7 +14069,7 @@
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
-      <c r="E24" s="119"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -12790,7 +14077,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="63"/>
-      <c r="C25" s="117"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="45"/>
       <c r="E25" s="50"/>
       <c r="F25" s="45"/>
@@ -12899,7 +14186,7 @@
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="123"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
@@ -12974,7 +14261,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -13027,28 +14314,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13058,18 +14345,18 @@
         <v>115</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -13080,23 +14367,23 @@
       <c r="B12" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>167</v>
+      <c r="C12" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
@@ -13108,16 +14395,16 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
@@ -13131,13 +14418,13 @@
         <v>117</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
@@ -13149,16 +14436,16 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -13168,17 +14455,17 @@
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>152</v>
+      <c r="E16" s="118" t="s">
+        <v>151</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -13189,16 +14476,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
@@ -13218,7 +14505,7 @@
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -13228,7 +14515,7 @@
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -13260,7 +14547,7 @@
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -13292,7 +14579,7 @@
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="119"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
@@ -13302,7 +14589,7 @@
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="119"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -13312,7 +14599,7 @@
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="119"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="45"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
@@ -13322,7 +14609,7 @@
       <c r="B29" s="63"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="119"/>
+      <c r="E29" s="118"/>
       <c r="F29" s="45"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
@@ -13332,7 +14619,7 @@
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="119"/>
+      <c r="E30" s="118"/>
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
@@ -13342,7 +14629,7 @@
       <c r="B31" s="63"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="119"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
@@ -13350,7 +14637,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="63"/>
-      <c r="C32" s="117"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="45"/>
       <c r="E32" s="50"/>
       <c r="F32" s="45"/>
@@ -13534,7 +14821,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -13587,28 +14874,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13618,18 +14905,18 @@
         <v>118</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
         <v>182</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>184</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -13639,23 +14926,23 @@
       <c r="B12" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>168</v>
+      <c r="C12" s="116" t="s">
+        <v>166</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
@@ -13666,16 +14953,16 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
@@ -13689,13 +14976,13 @@
         <v>117</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
@@ -13706,16 +14993,16 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -13725,17 +15012,17 @@
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>152</v>
+      <c r="E16" s="118" t="s">
+        <v>151</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -13746,16 +15033,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
@@ -13765,8 +15052,8 @@
       <c r="A18" s="37"/>
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -13776,7 +15063,7 @@
       <c r="A19" s="37"/>
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
-      <c r="D19" s="119"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="45"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
@@ -13786,8 +15073,8 @@
     <row r="20" spans="1:9">
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -13797,7 +15084,7 @@
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -13807,7 +15094,7 @@
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="119"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -13817,7 +15104,7 @@
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -13827,7 +15114,7 @@
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
-      <c r="E24" s="119"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -13837,7 +15124,7 @@
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="119"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
@@ -13845,7 +15132,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="63"/>
-      <c r="C26" s="117"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="45"/>
       <c r="E26" s="50"/>
       <c r="F26" s="45"/>
@@ -14029,7 +15316,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -14082,28 +15369,28 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14113,18 +15400,18 @@
         <v>120</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="118" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>184</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I11" s="77">
         <v>45082</v>
@@ -14134,23 +15421,23 @@
       <c r="B12" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="117" t="s">
-        <v>169</v>
+      <c r="C12" s="116" t="s">
+        <v>167</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I12" s="77">
         <v>45082</v>
@@ -14161,16 +15448,16 @@
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I13" s="77">
         <v>45082</v>
@@ -14181,16 +15468,16 @@
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="77">
         <v>45082</v>
@@ -14201,16 +15488,16 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I15" s="77">
         <v>45082</v>
@@ -14220,17 +15507,17 @@
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="119" t="s">
-        <v>180</v>
+      <c r="E16" s="118" t="s">
+        <v>178</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I16" s="77">
         <v>45082</v>
@@ -14241,16 +15528,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="117" t="s">
+        <v>182</v>
       </c>
       <c r="I17" s="77">
         <v>45082</v>
@@ -14261,7 +15548,7 @@
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
@@ -14271,7 +15558,7 @@
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -14279,10 +15566,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="37"/>
-      <c r="B20" s="122"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="45"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
@@ -14290,9 +15577,9 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="37"/>
-      <c r="B21" s="122"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="45"/>
-      <c r="D21" s="119"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="45"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
@@ -14300,20 +15587,20 @@
       <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="122"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="45"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="B23" s="122"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
-      <c r="E23" s="119"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -14323,7 +15610,7 @@
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
-      <c r="E24" s="119"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -14333,7 +15620,7 @@
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="119"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
@@ -14343,7 +15630,7 @@
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="119"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
@@ -14353,7 +15640,7 @@
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="119"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -14361,7 +15648,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="63"/>
-      <c r="C28" s="117"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="45"/>
       <c r="E28" s="50"/>
       <c r="F28" s="45"/>
